--- a/src/main/webapp/template/agent_tpl.xlsx
+++ b/src/main/webapp/template/agent_tpl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>代理商级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>南阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oekdjrmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oekdjrmd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -438,7 +450,7 @@
     <col min="2" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +460,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -459,8 +474,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -469,6 +487,9 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
